--- a/biology/Zoologie/Arachnophobie_(film)/Arachnophobie_(film).xlsx
+++ b/biology/Zoologie/Arachnophobie_(film)/Arachnophobie_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arachnophobie (Arachnophobia) est un film américain réalisé par Frank Marshall et sorti en 1990. Il est notamment produit par Steven Spielberg et Kathleen Kennedy et met en vedette Jeff Daniels, Harley Jane Kozak, Julian Sands et John Goodman.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entomologiste James Atherton se rend en expédition dans une région inexplorée du Venezuela à la recherche de nouvelles espèces d'araignées ; le spécimen d'une espèce inconnue se cache alors dans l'un des brancards et Manley, le photographe de l'expédition, succombe à sa morsure. Le rapatriement du corps est prévu en cercueil jusqu'à sa ville natale de Canaïma aux Etats-Unis mais l'araignée s'introduit dans le cercueil, et durant le voyage, se nourrit en aspirant tout le sang du cadavre.
 L'arachnide qui ne s'est pas fait remarquer est, dès sa sortie, emporté par un corbeau puis atterrit dans la grange du docteur Ross Jennings, fraîchement installé avec sa famille et atteint d'arachnophobie. L'araignée du Venezuela procrée avec une araignée de la région et crée ainsi une race mortelle composée de centaines de petites araignées assez discrètes.
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre francophone : Arachnophobie
 Titre original : Arachnophobia
@@ -571,7 +587,7 @@
 Dates de sortie :
 États-Unis : 18 juillet 1990
  France : 17 avril 1991
-Film tous publics lors de sa sortie en salles en France[1].</t>
+Film tous publics lors de sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeff Daniels (VF : Patrick Guillemin / VQ : Alain Zouvi) : Dr Ross Jennings
 Harley Jane Kozak (VF : Véronique Augereau / VQ : Danièle Panneton) : Molly Jennings
@@ -645,9 +663,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le tournage s'est déroulé à Cambria en Californie et au Venezuela, près du Salto Angel[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le tournage s'est déroulé à Cambria en Californie et au Venezuela, près du Salto Angel.
 Il s'agit du premier film produit par Hollywood Pictures, une filiale de la Walt Disney Company.
 Canaima, le nom de la ville où se déroule le film, est le nom d'un genre d'araignée qu'on retrouve justement au Venezuela</t>
         </is>
@@ -677,7 +697,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Summer Wind (en), interprété par Frank Sinatra
 Swear to Your Heart (en), interprété par Diane Warren
@@ -712,7 +734,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix du meilleur film d'horreur et du meilleur acteur pour Jeff Daniels, ainsi que nomination au prix du meilleur réalisateur, meilleur scénario et meilleur second rôle masculin (John Goodman), par l'Académie des films de science-fiction, fantastique et horreur en 1991.
 Nomination au prix de la meilleure comédie horrifique et du meilleur second rôle féminin pour Marlene Katz, lors des Young Artist Awards en 1991.</t>
